--- a/biology/Biologie cellulaire et moléculaire/Anne_Houdusse-Juillé/Anne_Houdusse-Juillé.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Anne_Houdusse-Juillé/Anne_Houdusse-Juillé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anne_Houdusse-Juill%C3%A9</t>
+          <t>Anne_Houdusse-Juillé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Houdusse-Juillé est une chercheuse française en biologie moléculaire. Directrice de recherche au CNRS, elle est rattachée à l'Institut Curie[1]. Elle est membre de l'EMBO.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Houdusse-Juillé est une chercheuse française en biologie moléculaire. Directrice de recherche au CNRS, elle est rattachée à l'Institut Curie. Elle est membre de l'EMBO.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anne_Houdusse-Juill%C3%A9</t>
+          <t>Anne_Houdusse-Juillé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Médaille de bronze du CNRS (2004)
-Prix Femmes de science (FEBS/EMBO Women in Science Award 2009) décerné par la FEBS et l'EMBO (2009)[2]
-Médaille d'argent du CNRS (2013)[3]
-Élue membre de l'Académie des sciences en décembre 2019[4].
+Prix Femmes de science (FEBS/EMBO Women in Science Award 2009) décerné par la FEBS et l'EMBO (2009)
+Médaille d'argent du CNRS (2013)
+Élue membre de l'Académie des sciences en décembre 2019.
  Chevalière de l'ordre national du Mérite (2020).</t>
         </is>
       </c>
